--- a/debug/PENGU_debug.xlsx
+++ b/debug/PENGU_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE355"/>
+  <dimension ref="A1:AE362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -36345,13 +36345,13 @@
         <v>0.021467</v>
       </c>
       <c r="C355" t="n">
-        <v>0.022606</v>
+        <v>0.022813</v>
       </c>
       <c r="D355" t="n">
         <v>0.020976</v>
       </c>
       <c r="E355" t="n">
-        <v>0.021973</v>
+        <v>0.022251</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>0.019853</v>
       </c>
       <c r="Q355" t="n">
-        <v>13.866922</v>
+        <v>14.909585</v>
       </c>
       <c r="R355" t="n">
         <v>24.4</v>
@@ -36434,6 +36434,713 @@
       </c>
       <c r="AE355" t="n">
         <v>0.020976</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.022249</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.023227</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.021645</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.02241</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>3</v>
+      </c>
+      <c r="I356" t="n">
+        <v/>
+      </c>
+      <c r="J356" t="n">
+        <v/>
+      </c>
+      <c r="K356" t="n">
+        <v/>
+      </c>
+      <c r="L356" t="n">
+        <v/>
+      </c>
+      <c r="M356" t="n">
+        <v/>
+      </c>
+      <c r="N356" t="n">
+        <v/>
+      </c>
+      <c r="O356" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0.019853</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>16.994913</v>
+      </c>
+      <c r="R356" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S356" t="n">
+        <v>6</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U356" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V356" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X356" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC356" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD356" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>0.021645</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.022409</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.023507</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.021239</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.021285</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G357" t="b">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>3</v>
+      </c>
+      <c r="I357" t="n">
+        <v/>
+      </c>
+      <c r="J357" t="n">
+        <v/>
+      </c>
+      <c r="K357" t="n">
+        <v/>
+      </c>
+      <c r="L357" t="n">
+        <v/>
+      </c>
+      <c r="M357" t="n">
+        <v/>
+      </c>
+      <c r="N357" t="n">
+        <v/>
+      </c>
+      <c r="O357" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0.019853</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>18.405279</v>
+      </c>
+      <c r="R357" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S357" t="n">
+        <v>6</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U357" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V357" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X357" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC357" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD357" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>0.021239</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.021288</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.021467</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.019942</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G358" t="b">
+        <v>1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>3</v>
+      </c>
+      <c r="I358" t="n">
+        <v/>
+      </c>
+      <c r="J358" t="n">
+        <v/>
+      </c>
+      <c r="K358" t="n">
+        <v/>
+      </c>
+      <c r="L358" t="n">
+        <v/>
+      </c>
+      <c r="M358" t="n">
+        <v/>
+      </c>
+      <c r="N358" t="n">
+        <v/>
+      </c>
+      <c r="O358" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>10.768834</v>
+      </c>
+      <c r="R358" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S358" t="n">
+        <v>6</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U358" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V358" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X358" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC358" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD358" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>0.01938</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.019943</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.020991</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.019658</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.020478</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G359" t="b">
+        <v>1</v>
+      </c>
+      <c r="H359" t="n">
+        <v>3</v>
+      </c>
+      <c r="I359" t="n">
+        <v/>
+      </c>
+      <c r="J359" t="n">
+        <v/>
+      </c>
+      <c r="K359" t="n">
+        <v/>
+      </c>
+      <c r="L359" t="n">
+        <v/>
+      </c>
+      <c r="M359" t="n">
+        <v/>
+      </c>
+      <c r="N359" t="n">
+        <v/>
+      </c>
+      <c r="O359" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>8.312692999999999</v>
+      </c>
+      <c r="R359" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S359" t="n">
+        <v>6</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U359" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V359" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X359" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC359" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD359" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>0.019658</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.020479</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.021484</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.020241</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.021165</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G360" t="b">
+        <v>1</v>
+      </c>
+      <c r="H360" t="n">
+        <v>3</v>
+      </c>
+      <c r="I360" t="n">
+        <v/>
+      </c>
+      <c r="J360" t="n">
+        <v/>
+      </c>
+      <c r="K360" t="n">
+        <v/>
+      </c>
+      <c r="L360" t="n">
+        <v/>
+      </c>
+      <c r="M360" t="n">
+        <v/>
+      </c>
+      <c r="N360" t="n">
+        <v/>
+      </c>
+      <c r="O360" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>10.856553</v>
+      </c>
+      <c r="R360" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S360" t="n">
+        <v>6</v>
+      </c>
+      <c r="T360" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U360" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V360" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X360" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC360" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD360" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>0.020241</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.021164</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.021811</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.020754</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.021373</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G361" t="b">
+        <v>1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>3</v>
+      </c>
+      <c r="I361" t="n">
+        <v/>
+      </c>
+      <c r="J361" t="n">
+        <v/>
+      </c>
+      <c r="K361" t="n">
+        <v/>
+      </c>
+      <c r="L361" t="n">
+        <v/>
+      </c>
+      <c r="M361" t="n">
+        <v/>
+      </c>
+      <c r="N361" t="n">
+        <v/>
+      </c>
+      <c r="O361" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>12.54386</v>
+      </c>
+      <c r="R361" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S361" t="n">
+        <v>6</v>
+      </c>
+      <c r="T361" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U361" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V361" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X361" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC361" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD361" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>0.020754</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.021372</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.022352</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.020672</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.021918</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G362" t="b">
+        <v>1</v>
+      </c>
+      <c r="H362" t="n">
+        <v>3</v>
+      </c>
+      <c r="I362" t="n">
+        <v/>
+      </c>
+      <c r="J362" t="n">
+        <v/>
+      </c>
+      <c r="K362" t="n">
+        <v/>
+      </c>
+      <c r="L362" t="n">
+        <v/>
+      </c>
+      <c r="M362" t="n">
+        <v/>
+      </c>
+      <c r="N362" t="n">
+        <v/>
+      </c>
+      <c r="O362" t="n">
+        <v>0.046608</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0.01938</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>15.335397</v>
+      </c>
+      <c r="R362" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S362" t="n">
+        <v>6</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0.02610048</v>
+      </c>
+      <c r="U362" t="n">
+        <v>0.02423616</v>
+      </c>
+      <c r="V362" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0.01910928</v>
+      </c>
+      <c r="X362" t="n">
+        <v>0.0163128</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>0.01305024</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>0.00978768</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>0.00885552</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>0.024365556</v>
+      </c>
+      <c r="AC362" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD362" t="n">
+        <v>0.02143968</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>0.020672</v>
       </c>
     </row>
   </sheetData>
